--- a/data/trans_camb/P19C05-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-11.57712772060883</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-8.802097324770683</v>
+        <v>-8.80209732477068</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-4.792939829566051</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.963539503171981</v>
+        <v>-9.15117184745022</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.0293027342113</v>
+        <v>-14.37403930344036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.70180213876623</v>
+        <v>-16.17383933413425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.764731168770512</v>
+        <v>-8.596776016188214</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-15.49262707802782</v>
+        <v>-15.06322488702067</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.61602389943677</v>
+        <v>-12.79068053933228</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.610401391940943</v>
+        <v>-8.094658471879493</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-13.84258814431072</v>
+        <v>-13.85361272287625</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-13.0119949849925</v>
+        <v>-13.24388632418631</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3927781245421258</v>
+        <v>0.7282771153198331</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.930417307122557</v>
+        <v>-5.472236104533756</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.522433590333348</v>
+        <v>-6.959988272651291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.3806404892635969</v>
+        <v>-0.7430404101989343</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-7.535069290958216</v>
+        <v>-7.653985404829819</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.090825850363779</v>
+        <v>-4.873902686289162</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.839087589760733</v>
+        <v>-1.991327134921089</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-8.189724439375148</v>
+        <v>-8.177625567231491</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-7.457414583962787</v>
+        <v>-7.186940049442665</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.5286078895202833</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4019009034439912</v>
+        <v>-0.4019009034439911</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2310115587552729</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4178115621935497</v>
+        <v>-0.4085764971721889</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6437193075104383</v>
+        <v>-0.6528590195114882</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7475597328310019</v>
+        <v>-0.7370871789620322</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3579542116047535</v>
+        <v>-0.3589129524021289</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.641659170093333</v>
+        <v>-0.6247953055456824</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5237372865408493</v>
+        <v>-0.5269034239629086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3354145803289837</v>
+        <v>-0.3606086540487788</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6132969287943488</v>
+        <v>-0.6108518837945205</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.583691472762033</v>
+        <v>-0.5775405162182251</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.02573102487435045</v>
+        <v>0.0543420767153758</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3102341713841648</v>
+        <v>-0.3499784362687849</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4599939311014152</v>
+        <v>-0.4389346487960168</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.01600863202961901</v>
+        <v>-0.03184715151365854</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3939897204720733</v>
+        <v>-0.4019966062522352</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2547621320058677</v>
+        <v>-0.252033734637903</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.09164189308867365</v>
+        <v>-0.1008260902104925</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.4305795639014645</v>
+        <v>-0.4303355652302865</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3929408346756561</v>
+        <v>-0.3756368596099503</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-2.796870905828838</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-3.452776082756055</v>
+        <v>-3.452776082756052</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.214460728902681</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.705402116826873</v>
+        <v>-4.336532465039145</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.462351350892291</v>
+        <v>-5.810447787551784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.318283938661767</v>
+        <v>-6.593574121793782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.007404561461337</v>
+        <v>0.9335986157325523</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.290270533751811</v>
+        <v>-6.406111858222229</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.500665059913818</v>
+        <v>-6.756188575626414</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2952916506893599</v>
+        <v>-0.2010515756225425</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.019401782119551</v>
+        <v>-4.996318214707903</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.470943961582843</v>
+        <v>-5.820785363357429</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.294774072626936</v>
+        <v>2.829830215828696</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.542178744551854</v>
+        <v>0.8978083742612983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.3554293294470375</v>
+        <v>-0.4455676581774782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.121124883971277</v>
+        <v>8.514492167095518</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3909527346064082</v>
+        <v>0.4332321622999601</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.7583845231241506</v>
+        <v>-0.5120157106221319</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.671822723958364</v>
+        <v>4.746883801175938</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1284967999388472</v>
+        <v>-0.222028126063239</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.226577332753831</v>
+        <v>-1.468921094246973</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1859028670691351</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2294996782991919</v>
+        <v>-0.2294996782991917</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1526657440037619</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2452895823306446</v>
+        <v>-0.2775517197692209</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3535768826135045</v>
+        <v>-0.3610622550027426</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.404678885493722</v>
+        <v>-0.419931405817699</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.0637766408247184</v>
+        <v>0.05524889807276044</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3755522423765363</v>
+        <v>-0.3757432934844655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3712994685335139</v>
+        <v>-0.3814115445341151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02075371614254208</v>
+        <v>-0.01342470894889197</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.322367539158061</v>
+        <v>-0.3196168876064885</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3471949029013219</v>
+        <v>-0.3607117860849069</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2728027408690596</v>
+        <v>0.2308526671822214</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1194995838307696</v>
+        <v>0.07726276384939328</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.02969010784305746</v>
+        <v>-0.03212372943142063</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6169338822418882</v>
+        <v>0.6484864772735147</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03071826906955242</v>
+        <v>0.03575459531697604</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04962899717582901</v>
+        <v>-0.03452905947176591</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3432608302126016</v>
+        <v>0.3574521288652387</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.01010645660309066</v>
+        <v>-0.01498816624315052</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1016178566282481</v>
+        <v>-0.1143583205549887</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.83468447909929</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.969378360307333</v>
+        <v>-1.969378360307332</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.883661589400209</v>
@@ -1092,7 +1092,7 @@
         <v>-1.367474371390463</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.249740651545482</v>
+        <v>-1.249740651545479</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.048553119665478</v>
+        <v>2.084066236664236</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.778570293896364</v>
+        <v>-4.056571512269623</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.612885969689556</v>
+        <v>-3.414210745370031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.649051361685698</v>
+        <v>2.548794662956607</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.549839238093615</v>
+        <v>-5.47132887013872</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.917648979322376</v>
+        <v>-4.95922940855495</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.364866396266077</v>
+        <v>3.5475811543501</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.735307971273329</v>
+        <v>-3.792786146158399</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.335342255145279</v>
+        <v>-3.258849829983005</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.171549388769598</v>
+        <v>9.050925450818042</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.311224485493372</v>
+        <v>2.13171555548996</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.252098252751157</v>
+        <v>2.09448941004735</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.610772448348991</v>
+        <v>9.835584040098258</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.619925463958081</v>
+        <v>1.576925746404395</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7536245569069205</v>
+        <v>1.063882065412842</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.416418070132769</v>
+        <v>8.273533291180886</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7492903851731834</v>
+        <v>0.9439828644413962</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6737757231222447</v>
+        <v>0.7747753533008961</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1350891874382087</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.145006798434856</v>
+        <v>-0.1450067984348559</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4716776153692547</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1096268098998157</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1001884084246055</v>
+        <v>-0.1001884084246053</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1460283171488593</v>
+        <v>0.1546938833963205</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3003613762673638</v>
+        <v>-0.312556763696458</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2682339917469126</v>
+        <v>-0.2632134437211949</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.08963467141262002</v>
+        <v>0.166214755750283</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3657703534793681</v>
+        <v>-0.3559706965161146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3163037105326159</v>
+        <v>-0.3171556991800933</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2444704255742852</v>
+        <v>0.2676640867889894</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2736952066521831</v>
+        <v>-0.277679964217406</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.242736491865758</v>
+        <v>-0.2384232048826125</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8765480183788826</v>
+        <v>0.8980153773233555</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2300873966903187</v>
+        <v>0.2110162112680679</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2297922301055244</v>
+        <v>0.2161802598948863</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7845726637954932</v>
+        <v>0.8378794117026477</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1365331844263547</v>
+        <v>0.1302820046887168</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07142645701962676</v>
+        <v>0.07497213638017804</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7249468020520736</v>
+        <v>0.7270295006813065</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.06850166545520156</v>
+        <v>0.08493652952780349</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.06049717039628845</v>
+        <v>0.06801484662688306</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.9746855520280595</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.4229280518468659</v>
+        <v>0.4229280518468687</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.900548864373357</v>
@@ -1306,7 +1306,7 @@
         <v>-0.01707922550102797</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.001277804833026142</v>
+        <v>0.001277804833027529</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.56113625957207</v>
+        <v>-2.181531931020285</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.026956276106911</v>
+        <v>-5.60032655546793</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.119566108704439</v>
+        <v>-4.427669737580409</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.060256490576309</v>
+        <v>-2.164828189431735</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.145138561708658</v>
+        <v>-4.196668915886957</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.807773478695036</v>
+        <v>-4.517580414326193</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6390987333881973</v>
+        <v>-0.5460186396635331</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.638040982402361</v>
+        <v>-3.46070525923268</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.906984555530506</v>
+        <v>-3.053382818461198</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.346302006293941</v>
+        <v>7.245351061471417</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.485496051393687</v>
+        <v>3.586539174572442</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.472877471354988</v>
+        <v>3.779684773579012</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.434358517218376</v>
+        <v>8.898771353968087</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.464062437353034</v>
+        <v>5.97869499331315</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.369903080800738</v>
+        <v>3.987336170975812</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.659443849090123</v>
+        <v>6.532773668334126</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.643197570602144</v>
+        <v>3.636111329817714</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.769610573714013</v>
+        <v>2.54404086940686</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.08102326580448276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03515699180075072</v>
+        <v>0.03515699180075096</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2404329149246248</v>
@@ -1411,7 +1411,7 @@
         <v>-0.001415734801886987</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.0001059200706744938</v>
+        <v>0.0001059200706746088</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.180459710009525</v>
+        <v>-0.1519521761899312</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.398130874638652</v>
+        <v>-0.388457074068346</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2894776483454518</v>
+        <v>-0.2979614145164882</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.150774504328812</v>
+        <v>-0.141810771238939</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2776797376322512</v>
+        <v>-0.2945050481940014</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2496525767266632</v>
+        <v>-0.2744039733368965</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.04557023274859626</v>
+        <v>-0.04191915429165473</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.260292138117005</v>
+        <v>-0.253081708350005</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2015591484270492</v>
+        <v>-0.2154474072587014</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7845715423489185</v>
+        <v>0.7893470005452643</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3701487056978376</v>
+        <v>0.4329491269980351</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3769006875146145</v>
+        <v>0.4037676680973926</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.944061361920139</v>
+        <v>0.9687937186128651</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6706804888330866</v>
+        <v>0.6813309423425624</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4803632602493625</v>
+        <v>0.4450915354998941</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6464564486134923</v>
+        <v>0.6254267350486541</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3611172647856213</v>
+        <v>0.3518506958317345</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2772725636038336</v>
+        <v>0.2582511207113872</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-3.01790815285118</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.05808666978679</v>
+        <v>-3.058086669786789</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.139446205113288</v>
@@ -1511,7 +1511,7 @@
         <v>-4.51895065871525</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.087260072617154</v>
+        <v>-4.087260072617152</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.77115090351101</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4049261535455104</v>
+        <v>-0.5386585105470647</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.949669145091459</v>
+        <v>-5.070636558162151</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.642194062008252</v>
+        <v>-4.926650592808427</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1143241720359854</v>
+        <v>0.1245643151100519</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.330292597688662</v>
+        <v>-6.335149137086582</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.822499904617326</v>
+        <v>-5.639458872282931</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3442481906309773</v>
+        <v>0.3862723899681242</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.157094351450787</v>
+        <v>-5.150197886993872</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.777050709911945</v>
+        <v>-4.809320840127234</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.322852964282746</v>
+        <v>3.468022836667093</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.028966725794661</v>
+        <v>-1.274653733066771</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.336581403338617</v>
+        <v>-1.559798676869043</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.140052375757465</v>
+        <v>4.002285795337388</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-2.625843094032439</v>
+        <v>-2.713333441509831</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.624680775443562</v>
+        <v>-2.520417197961439</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.16202531463714</v>
+        <v>3.146174413543919</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.541559520873026</v>
+        <v>-2.576039409522984</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.565948890131063</v>
+        <v>-2.3406034918413</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2231453363751025</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2261161519939208</v>
+        <v>-0.2261161519939207</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1325241187436829</v>
@@ -1616,7 +1616,7 @@
         <v>-0.2799182107318808</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2531779195500491</v>
+        <v>-0.253177919550049</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1188591225155051</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02874537970582677</v>
+        <v>-0.04013352613666063</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3504119922343114</v>
+        <v>-0.3504972527299687</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3218770010860776</v>
+        <v>-0.3348011396797016</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.006944918868381035</v>
+        <v>0.00713557654759853</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.368860922326476</v>
+        <v>-0.3669225929512966</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3385169793459332</v>
+        <v>-0.3268730162930573</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02206990207555682</v>
+        <v>0.0229768657066889</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3281229235562277</v>
+        <v>-0.3293511517343227</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3066945236160243</v>
+        <v>-0.3053542263474167</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2703141302557011</v>
+        <v>0.2790900470930114</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.09213079810394469</v>
+        <v>-0.1041500947342302</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1089752607785182</v>
+        <v>-0.1244099922808779</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.275960389992303</v>
+        <v>0.2704937827278306</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1760837631997958</v>
+        <v>-0.1783685356110157</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1683294971637158</v>
+        <v>-0.1661548518121835</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2234069484440363</v>
+        <v>0.2213599498102114</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1777525592454716</v>
+        <v>-0.1765169022411406</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1807495249887455</v>
+        <v>-0.1632139191390618</v>
       </c>
     </row>
     <row r="34">
